--- a/Test Case/testCaseNodeJS.xlsx
+++ b/Test Case/testCaseNodeJS.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="246">
   <si>
     <t>Test Requirement List</t>
   </si>
@@ -6160,27 +6160,11 @@
   </si>
   <si>
     <r>
-      <t>ch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <charset val="0"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Trebuchet MS"/>
-        <charset val="0"/>
-      </rPr>
-      <t>a login</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
       <t>1. ch</t>
     </r>
     <r>
@@ -6308,6 +6292,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
       <t>xem danh sách s</t>
     </r>
     <r>
@@ -6359,6 +6348,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
       <t>1. ch</t>
     </r>
     <r>
@@ -6574,6 +6568,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
       <t>c</t>
     </r>
     <r>
@@ -6649,28 +6648,11 @@
   </si>
   <si>
     <r>
-      <t>Login successfully
-/ch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="0"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <charset val="0"/>
-      </rPr>
-      <t>a login</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
       <t>1. ch</t>
     </r>
     <r>
@@ -6903,6 +6885,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
       <t>có các b</t>
     </r>
     <r>
@@ -6978,27 +6965,11 @@
   </si>
   <si>
     <r>
-      <t>ch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="0"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <charset val="0"/>
-      </rPr>
-      <t>a login</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
       <t>Thanh toán thành công g</t>
     </r>
     <r>
@@ -7052,6 +7023,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
       <t>b</t>
     </r>
     <r>
@@ -7156,6 +7132,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
       <t>Order v</t>
     </r>
     <r>
@@ -7273,6 +7254,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
       <t>Thanh toán thành công v</t>
     </r>
     <r>
@@ -7342,6 +7328,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
       <t>không hi</t>
     </r>
     <r>
@@ -7485,6 +7476,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
       <t>1.thanh toán thành công
 2. Vào bi</t>
     </r>
@@ -7572,6 +7568,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
       <t>Xem thành công đ</t>
     </r>
     <r>
@@ -7615,6 +7616,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
       <t>Xem thành công tình tr</t>
     </r>
     <r>
@@ -7662,6 +7668,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
       <t>Xem thành công đ</t>
     </r>
     <r>
@@ -7689,6 +7700,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
       <t>Hi</t>
     </r>
     <r>
@@ -7780,6 +7796,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
       <t>Thanh toán thành công hóa đ</t>
     </r>
     <r>
@@ -10771,6 +10792,5871 @@
         <charset val="0"/>
       </rPr>
       <t>i nó</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>Khi thêm n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>u ghi thi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>u các tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ườ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ng đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>a ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ỉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> có trong vi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>c thêm thì s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ẽ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> không th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> thêm đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>c
+thêm đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>a ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ỉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>i n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>i dung trùng nhau v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> tên, phone, đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>a ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ỉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ẫ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">c
+</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;&lt;Admin Dashboard&gt;&gt;</t>
+  </si>
+  <si>
+    <t>TC_AD_001</t>
+  </si>
+  <si>
+    <t>Admin Dashboard</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>Login successfully v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>i admin account</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>1. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">n Admin trên panel
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>xu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n các m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ụ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>c đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>y đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">
+1. T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ng user
+2. T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ng đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n hàng
+3.T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ng doanh thu
+4.Các s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ẩ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>m bán ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">y
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> có đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>p đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n vi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>c mình ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>i bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>u di</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ễ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n qua bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>u đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ồ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_AD_002</t>
+  </si>
+  <si>
+    <t>View order list</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>Login successfully v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>i admin account</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>1. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n Admin trên panel
+2. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n manage order
+3. xu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n danh sách đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n hàng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>Hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n thông tin các đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n hàng đã có</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>Khi ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n start date và end date đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>c s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ẩ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>m, n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>u mu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>y các đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n hàng trong kho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ng t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ừ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> ngày 1/12 đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n ngày 4/12, h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ng hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>i ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ỉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> các đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n hàng đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n ngày 3/12. Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>y đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> các đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n hàng trong kho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ng th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ờ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>i gian mong mu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n, end date c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>c ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n 1 ngày so v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>i ngày k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t thúc mong mu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n.
+Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> bài cũng đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>p đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n vi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>c s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ắ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>p x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>p các đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n hàng theo th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>i nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ướ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>c (sorted with the most recent orders first) và h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ỗ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>c đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n hàng theo tu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n ho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ặ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>c theo tháng.</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_AD_003</t>
+  </si>
+  <si>
+    <t>View order detail</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>Hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n thông tin đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>y đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n hàng
+tên user, th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>i gian mua,s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> đi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n tho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>i, t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ng giá tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n hàng(g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ồ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>m gi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>m giá)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ng giá tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n hàng lúc đó v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ẫ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>a bao g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ồ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>m gi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>m giá t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ừ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> coupon </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">
+Các thông tin khác thì có đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>y đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> trong order detail</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_AD_004</t>
+  </si>
+  <si>
+    <t>Order status</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>1. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n Admin trên panel
+2. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n manage order
+3. xu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n danh sách đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n hàng
+4.ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n vào nút bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>u t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ng c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>p nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ng thái đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n hàng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>p nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ng thái đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n hàng thành công và phía bên user cũng c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>p nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t thành công</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_AD_005</t>
+  </si>
+  <si>
+    <t>Advance dashboard</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>1. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n Admin trên panel
+2. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n dashboard</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>xu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>u đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ồ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> so sánh s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ng đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n hàng trong các ngày trong tu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>Trong ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>a em hong th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>y hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">n earning </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_AD_006</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>Qu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n lý users</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>1. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n Admin trên panel
+2. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n account setting
+3. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n manage users
+4. xu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n danh sách users</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>p nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t thông tin users thành công ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>m tra thông tin email và phone có trùng hong</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>p nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t thông tin users thành công: nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ng v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>i email và phone thì không ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>m tra trùng v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">i các user khác hong </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_AD_007</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>Qu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n lý users account</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>1. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n Admin trên panel
+2. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n account setting
+3. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n manage accounts
+4. xu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n danh sách users account</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>Cho phép c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>m và m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ở</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> khóa tài kho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n đã c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ở</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> trong em th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>y có c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>m tài kho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n admin hong bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>m xong mình hong dô đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_AD_008</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>p nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t thông tin s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ẩ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>1. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n Admin trên panel
+2. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n order setting
+3. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n manage products
+4. xu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n danh sách product
+5. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ẩ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>m t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">ng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ng mu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>p nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>p nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t thông tin s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ẩ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>m thành công</t>
+    </r>
+  </si>
+  <si>
+    <t>Dạ em thay đổi ảnh có trong máy của em thì nó hiện loading, và lỗi Error: ENOENT: no such file or directory, open 'D:\TDT_lesson\NODE JS\Final_Project\FinalProject_NodeJS\BackEnd\src\upload\Screenshot 2024-12-02 125124.png'
+Các thông tin sản phẩm khác thì vẫn cập nhật được, trong frontend khi cập nhật sản phẩm trong phần product variant thì trọng lượng bị lỗi tên thành CPU ạ
+ở bên ngoài cập nhật thông tin tổng thể về sản phẩm đó em không thể cập nhật được ạ</t>
+  </si>
+  <si>
+    <t>TC_AD_009</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>Thêm product variant m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>Login successfully 
+v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>i admin account</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>1. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n Admin trên panel
+2. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n order setting
+3. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n manage products
+4. xu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n danh sách product
+5. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ẩ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>m t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">ng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ng mu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n thêm variant</t>
+    </r>
+  </si>
+  <si>
+    <t>Thêm variant thành công</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>em th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>y là mình v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ẫ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n có th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> thêm 2 product variant trùng nhau đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_AD_0010</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>p nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t thông tin product variant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>1. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n Admin trên panel
+2. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n order setting
+3. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n manage products
+4. xu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n danh sách product
+5. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ẩ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>m t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">ng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ng mu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>p nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t product variant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>p nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t thông tin product variant thành công</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>Các thông tin chi ti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> product variant đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>u đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>c c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>p nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t thành công
+Nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">ng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ở</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>nh khi c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>p nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">t </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>nh t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ừ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> trong folder trong máy em thì b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> loading</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_AD_0011</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>Thêm category m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>1. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n Admin trên panel
+2. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n order setting
+3. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n manage category
+4. xu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n danh sách category
+5. thêm category</t>
+    </r>
+  </si>
+  <si>
+    <t>thêm thành công</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ở</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> category thêm m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t category trùng v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>i m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t category đã có thì em v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ẫ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n thêm đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_AD_0012</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>Thêm /xóa s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ẩ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n Admin trên panel
+2. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n order setting
+3. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n manage product
+4. xu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n danh sách product</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>thêm s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ẩ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>m thành công
+xóa s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ẩ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>m thành công</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;&lt;Marketing and coupon&gt;&gt;</t>
+  </si>
+  <si>
+    <t>TC_MC_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thêm coupon </t>
+  </si>
+  <si>
+    <r>
+      <t>1. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n Admin trên panel
+2. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n order setting
+3. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n manage coupon
+4. xu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n danh sách coupon</t>
+    </r>
+  </si>
+  <si>
+    <t>thêm thành công coupon</t>
+  </si>
+  <si>
+    <r>
+      <t>Em có th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> thêm m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t coupon v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>i thông tin trùng v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>i coupon tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ướ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">c đó </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">xóa coupon </t>
+  </si>
+  <si>
+    <t>Xóa coupon thành công</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>p nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t coupon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>p nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t coupon thành công</t>
+    </r>
+  </si>
+  <si>
+    <t>loyalty prográm</t>
+  </si>
+  <si>
+    <r>
+      <t>1. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n Admin trên panel
+2. ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n order setting
+3. Th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>c hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n hoàn thành m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n hàng
+4. Vào manage user</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>p nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>t đi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>m cho user đã th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>c hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n thành công đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">n hàng </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> em tha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>y sau khi chuy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ng thái đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n hàng  cho users thành công thì đi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>m nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>c t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ừ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>n hàng đó hong đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t>c c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">ng vô users </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>ạ</t>
     </r>
   </si>
 </sst>
@@ -12157,10 +18043,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -12812,13 +18698,13 @@
         <v>95</v>
       </c>
       <c r="D28" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="F28" s="24" t="s">
         <v>97</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>98</v>
       </c>
       <c r="G28" s="31" t="s">
         <v>18</v>
@@ -12828,25 +18714,25 @@
         <v>19</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" ht="43.2" spans="1:10">
       <c r="A29" s="19"/>
       <c r="B29" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="27" t="s">
         <v>100</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>101</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>35</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>18</v>
@@ -12860,19 +18746,19 @@
     <row r="30" ht="43.2" spans="1:10">
       <c r="A30" s="19"/>
       <c r="B30" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="27" t="s">
         <v>103</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>104</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>106</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>18</v>
@@ -12886,19 +18772,19 @@
     <row r="31" ht="57.6" spans="1:10">
       <c r="A31" s="19"/>
       <c r="B31" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="D31" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="F31" s="24" t="s">
         <v>109</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>111</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>18</v>
@@ -12912,19 +18798,19 @@
     <row r="32" ht="57.6" spans="1:10">
       <c r="A32" s="19"/>
       <c r="B32" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="24" t="s">
         <v>112</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>115</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>18</v>
@@ -12934,25 +18820,25 @@
         <v>19</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" ht="57.6" spans="1:10">
       <c r="A33" s="19"/>
       <c r="B33" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>18</v>
@@ -12962,12 +18848,12 @@
         <v>19</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
@@ -12982,19 +18868,19 @@
     <row r="35" ht="43.2" spans="1:10">
       <c r="A35" s="19"/>
       <c r="B35" s="20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D35" s="30" t="s">
         <v>35</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G35" s="31" t="s">
         <v>18</v>
@@ -13008,19 +18894,19 @@
     <row r="36" ht="43.2" spans="1:10">
       <c r="A36" s="19"/>
       <c r="B36" s="26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>18</v>
@@ -13034,19 +18920,19 @@
     <row r="37" ht="43.2" spans="1:10">
       <c r="A37" s="19"/>
       <c r="B37" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>132</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>18</v>
@@ -13060,19 +18946,19 @@
     <row r="38" ht="57.6" spans="1:10">
       <c r="A38" s="19"/>
       <c r="B38" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>18</v>
@@ -13086,19 +18972,19 @@
     <row r="39" ht="57.6" spans="1:10">
       <c r="A39" s="19"/>
       <c r="B39" s="26" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>18</v>
@@ -13108,12 +18994,12 @@
         <v>19</v>
       </c>
       <c r="J39" s="26" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -13125,22 +19011,22 @@
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
     </row>
-    <row r="41" ht="115.2" spans="1:10">
+    <row r="41" ht="43.2" spans="1:10">
       <c r="A41" s="19"/>
       <c r="B41" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="F41" s="24" t="s">
         <v>141</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>144</v>
       </c>
       <c r="G41" s="25" t="s">
         <v>18</v>
@@ -13151,22 +19037,22 @@
       </c>
       <c r="J41" s="24"/>
     </row>
-    <row r="42" ht="144" spans="1:10">
+    <row r="42" ht="43.2" spans="1:10">
       <c r="A42" s="19"/>
       <c r="B42" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="F42" s="24" t="s">
         <v>146</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>149</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>18</v>
@@ -13177,22 +19063,22 @@
       </c>
       <c r="J42" s="26"/>
     </row>
-    <row r="43" ht="115.2" spans="1:10">
+    <row r="43" ht="43.2" spans="1:10">
       <c r="A43" s="19"/>
       <c r="B43" s="26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D43" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>18</v>
@@ -13203,22 +19089,22 @@
       </c>
       <c r="J43" s="26"/>
     </row>
-    <row r="44" ht="144" spans="1:10">
+    <row r="44" ht="43.2" spans="1:10">
       <c r="A44" s="19"/>
       <c r="B44" s="26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>18</v>
@@ -13229,22 +19115,22 @@
       </c>
       <c r="J44" s="26"/>
     </row>
-    <row r="45" ht="172.8" spans="1:10">
+    <row r="45" ht="57.6" spans="1:10">
       <c r="A45" s="19"/>
       <c r="B45" s="26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>18</v>
@@ -13255,22 +19141,22 @@
       </c>
       <c r="J45" s="26"/>
     </row>
-    <row r="46" ht="409.5" spans="1:10">
+    <row r="46" ht="43.2" spans="1:10">
       <c r="A46" s="19"/>
       <c r="B46" s="26" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>18</v>
@@ -13280,25 +19166,25 @@
         <v>19</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="47" ht="100.8" spans="1:10">
+    <row r="47" ht="28.8" spans="1:10">
       <c r="A47" s="19"/>
       <c r="B47" s="26" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D47" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>18</v>
@@ -13309,22 +19195,22 @@
       </c>
       <c r="J47" s="26"/>
     </row>
-    <row r="48" ht="259.2" spans="1:10">
+    <row r="48" ht="43.2" spans="1:10">
       <c r="A48" s="19"/>
       <c r="B48" s="26" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D48" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>18</v>
@@ -13334,10 +19220,10 @@
         <v>19</v>
       </c>
       <c r="J48" s="32" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="49" ht="409.5" spans="1:10">
+    <row r="49" ht="57.6" spans="1:10">
       <c r="A49" s="19"/>
       <c r="B49" s="26" t="s">
         <v>76</v>
@@ -13365,7 +19251,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" ht="302.4" spans="1:10">
+    <row r="50" ht="86.4" spans="1:10">
       <c r="A50" s="19"/>
       <c r="B50" s="26" t="s">
         <v>80</v>
@@ -13391,7 +19277,7 @@
       </c>
       <c r="J50" s="24"/>
     </row>
-    <row r="51" ht="288" spans="1:10">
+    <row r="51" ht="57.6" spans="1:10">
       <c r="A51" s="19"/>
       <c r="B51" s="26" t="s">
         <v>84</v>
@@ -13419,7 +19305,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" ht="288" spans="1:10">
+    <row r="52" ht="43.2" spans="1:10">
       <c r="A52" s="19"/>
       <c r="B52" s="26" t="s">
         <v>89</v>
@@ -13444,25 +19330,666 @@
         <v>19</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>88</v>
-      </c>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+    </row>
+    <row r="54" ht="115.2" spans="1:10">
+      <c r="A54" s="19"/>
+      <c r="B54" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="26"/>
+      <c r="I54" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" ht="57.6" spans="1:10">
+      <c r="A55" s="19"/>
+      <c r="B55" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="26"/>
+      <c r="I55" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" ht="86.4" spans="1:10">
+      <c r="A56" s="19"/>
+      <c r="B56" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G56" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="26"/>
+      <c r="I56" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" ht="57.6" spans="1:10">
+      <c r="A57" s="19"/>
+      <c r="B57" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="26"/>
+      <c r="I57" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="26"/>
+    </row>
+    <row r="58" ht="57.6" spans="1:10">
+      <c r="A58" s="19"/>
+      <c r="B58" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="26"/>
+      <c r="I58" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" ht="57.6" spans="1:10">
+      <c r="A59" s="19"/>
+      <c r="B59" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="26"/>
+      <c r="I59" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" ht="57.6" spans="1:10">
+      <c r="A60" s="19"/>
+      <c r="B60" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="26"/>
+      <c r="I60" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" ht="72" spans="1:10">
+      <c r="A61" s="19"/>
+      <c r="B61" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G61" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="26"/>
+      <c r="I61" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61" s="32" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" ht="72" spans="1:10">
+      <c r="A62" s="19"/>
+      <c r="B62" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="26"/>
+      <c r="I62" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62" s="24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" ht="86.4" spans="1:10">
+      <c r="A63" s="19"/>
+      <c r="B63" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G63" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="26"/>
+      <c r="I63" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" s="24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" ht="72" spans="1:10">
+      <c r="A64" s="19"/>
+      <c r="B64" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G64" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="26"/>
+      <c r="I64" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="65" ht="57.6" spans="1:10">
+      <c r="A65" s="19"/>
+      <c r="B65" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="G65" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="26"/>
+      <c r="I65" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65" s="24"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B66" s="13"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+    </row>
+    <row r="67" ht="57.6" spans="1:10">
+      <c r="A67" s="19"/>
+      <c r="B67" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="G67" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="26"/>
+      <c r="I67" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J67" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" ht="57.6" spans="1:10">
+      <c r="A68" s="19"/>
+      <c r="B68" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="G68" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" s="26"/>
+      <c r="I68" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68" s="24"/>
+    </row>
+    <row r="69" ht="57.6" spans="1:10">
+      <c r="A69" s="19"/>
+      <c r="B69" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G69" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="26"/>
+      <c r="I69" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J69" s="24"/>
+    </row>
+    <row r="70" ht="57.6" spans="1:10">
+      <c r="A70" s="19"/>
+      <c r="B70" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="G70" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="26"/>
+      <c r="I70" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" s="26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="19"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="26"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="19"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="19"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="26"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="19"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="32"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="19"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="19"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="19"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="32"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="19"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="0" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="121" stopIfTrue="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="122" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="123" stopIfTrue="1" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="0" priority="112" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="113" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="114" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="cellIs" dxfId="2" priority="108" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="107" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="106" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="cellIs" dxfId="2" priority="105" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="104" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="103" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="cellIs" dxfId="2" priority="102" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="101" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="100" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="cellIs" dxfId="2" priority="99" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="98" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="97" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="cellIs" dxfId="2" priority="96" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="95" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="94" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="2" priority="93" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="92" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="91" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47">
     <cfRule type="cellIs" dxfId="0" priority="67" stopIfTrue="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
@@ -13473,62 +20000,227 @@
       <formula>"Blocked"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="2" priority="63" stopIfTrue="1" operator="equal">
-      <formula>"Blocked"</formula>
+  <conditionalFormatting sqref="G48">
+    <cfRule type="cellIs" dxfId="0" priority="61" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="62" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="61" stopIfTrue="1" operator="equal">
-      <formula>"Passed"</formula>
+    <cfRule type="cellIs" dxfId="2" priority="63" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="2" priority="60" stopIfTrue="1" operator="equal">
-      <formula>"Blocked"</formula>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="cellIs" dxfId="0" priority="58" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="59" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="58" stopIfTrue="1" operator="equal">
-      <formula>"Passed"</formula>
+    <cfRule type="cellIs" dxfId="2" priority="60" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="cellIs" dxfId="2" priority="57" stopIfTrue="1" operator="equal">
-      <formula>"Blocked"</formula>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="cellIs" dxfId="0" priority="55" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="56" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="55" stopIfTrue="1" operator="equal">
-      <formula>"Passed"</formula>
+    <cfRule type="cellIs" dxfId="2" priority="57" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="2" priority="54" stopIfTrue="1" operator="equal">
-      <formula>"Blocked"</formula>
+  <conditionalFormatting sqref="G51">
+    <cfRule type="cellIs" dxfId="0" priority="52" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="53" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="52" stopIfTrue="1" operator="equal">
-      <formula>"Passed"</formula>
+    <cfRule type="cellIs" dxfId="2" priority="54" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="2" priority="51" stopIfTrue="1" operator="equal">
-      <formula>"Blocked"</formula>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="cellIs" dxfId="0" priority="49" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="50" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="51" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G60">
+    <cfRule type="cellIs" dxfId="2" priority="45" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="44" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="43" stopIfTrue="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="G61">
+    <cfRule type="cellIs" dxfId="2" priority="39" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="38" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="37" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G62">
+    <cfRule type="cellIs" dxfId="2" priority="36" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="35" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="34" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G63">
+    <cfRule type="cellIs" dxfId="2" priority="33" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="32" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="31" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="cellIs" dxfId="2" priority="30" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="29" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="28" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="cellIs" dxfId="2" priority="24" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="23" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="22" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G73">
+    <cfRule type="cellIs" dxfId="2" priority="21" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="20" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="19" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G74">
+    <cfRule type="cellIs" dxfId="2" priority="15" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="14" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="13" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G75">
+    <cfRule type="cellIs" dxfId="2" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G76">
+    <cfRule type="cellIs" dxfId="2" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G77">
+    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G11">
+    <cfRule type="cellIs" dxfId="0" priority="118" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="119" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="120" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G19">
+    <cfRule type="cellIs" dxfId="0" priority="109" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="110" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="111" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:G33">
+    <cfRule type="cellIs" dxfId="2" priority="87" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="86" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="85" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35:G39">
     <cfRule type="cellIs" dxfId="2" priority="48" stopIfTrue="1" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
@@ -13539,84 +20231,7 @@
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="0" priority="22" stopIfTrue="1" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="23" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="24" stopIfTrue="1" operator="equal">
-      <formula>"Blocked"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
-    <cfRule type="cellIs" dxfId="0" priority="16" stopIfTrue="1" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="17" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="18" stopIfTrue="1" operator="equal">
-      <formula>"Blocked"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="0" priority="13" stopIfTrue="1" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="15" stopIfTrue="1" operator="equal">
-      <formula>"Blocked"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="0" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="12" stopIfTrue="1" operator="equal">
-      <formula>"Blocked"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"Blocked"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"Blocked"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G11">
-    <cfRule type="cellIs" dxfId="0" priority="73" stopIfTrue="1" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="74" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="75" stopIfTrue="1" operator="equal">
-      <formula>"Blocked"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G19">
+  <conditionalFormatting sqref="G41:G46">
     <cfRule type="cellIs" dxfId="0" priority="64" stopIfTrue="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
@@ -13627,7 +20242,7 @@
       <formula>"Blocked"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28:G33">
+  <conditionalFormatting sqref="G54:G59">
     <cfRule type="cellIs" dxfId="2" priority="42" stopIfTrue="1" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
@@ -13638,30 +20253,19 @@
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35:G39">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G67:G72">
+    <cfRule type="cellIs" dxfId="2" priority="18" stopIfTrue="1" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="17" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="16" stopIfTrue="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:G46">
-    <cfRule type="cellIs" dxfId="0" priority="19" stopIfTrue="1" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="21" stopIfTrue="1" operator="equal">
-      <formula>"Blocked"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G12 G14:G26 G28:G33 G35:G39 G41:G52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G12 G14:G26 G28:G33 G35:G39 G41:G52 G54:G65 G67:G78">
       <formula1>"Passed, Failed, Blocked, Skipped"</formula1>
     </dataValidation>
   </dataValidations>
